--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2023.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2023.xlsx
@@ -384,7 +384,7 @@
         <v>179.221</v>
       </c>
       <c r="C2">
-        <v>133.7802936053745</v>
+        <v>137.5335740648586</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>16.612</v>
       </c>
       <c r="C3">
-        <v>12.40009952724558</v>
+        <v>12.74799120842664</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>17.001</v>
       </c>
       <c r="C4">
-        <v>12.69047026623538</v>
+        <v>13.04650845981588</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>23.016</v>
       </c>
       <c r="C5">
-        <v>17.18039313262005</v>
+        <v>17.66239860661856</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>29.523</v>
       </c>
       <c r="C6">
-        <v>22.03757153520776</v>
+        <v>22.65584784772332</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>9.76</v>
       </c>
       <c r="C7">
-        <v>7.285394376710625</v>
+        <v>7.489790163390561</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>11.06</v>
       </c>
       <c r="C8">
-        <v>8.25578502114954</v>
+        <v>8.487405656465125</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>29.489</v>
       </c>
       <c r="C9">
-        <v>22.01219208758398</v>
+        <v>22.62975636559675</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>50.812</v>
       </c>
       <c r="C10">
-        <v>37.92883801940781</v>
+        <v>38.99295264161898</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>14.155</v>
       </c>
       <c r="C11">
-        <v>10.56606120925603</v>
+        <v>10.86249792651572</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>3.821</v>
       </c>
       <c r="C12">
-        <v>2.852202040308535</v>
+        <v>2.932222153106079</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>8.641</v>
       </c>
       <c r="C13">
-        <v>6.450111968151282</v>
+        <v>6.631073442813303</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>2.53</v>
       </c>
       <c r="C14">
-        <v>1.888529484946504</v>
+        <v>1.941513228829725</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>3.944</v>
       </c>
       <c r="C15">
-        <v>2.944015924359293</v>
+        <v>3.026611926681596</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>25.266</v>
       </c>
       <c r="C16">
-        <v>18.85991540184125</v>
+        <v>19.38904080617069</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>26.033</v>
       </c>
       <c r="C17">
-        <v>19.43244588206021</v>
+        <v>19.97763394708468</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>25.575</v>
       </c>
       <c r="C18">
-        <v>19.09056979348097</v>
+        <v>19.62616633490918</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>8.167</v>
       </c>
       <c r="C19">
-        <v>6.096292610102015</v>
+        <v>6.267327486107655</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>32.381</v>
       </c>
       <c r="C20">
-        <v>24.17093804428962</v>
+        <v>24.84906713942108</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>91.34999999999999</v>
       </c>
       <c r="C21">
-        <v>68.1886041303807</v>
+        <v>70.10167330181636</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>14.249</v>
       </c>
       <c r="C22">
-        <v>10.63622791739239</v>
+        <v>10.93463320063034</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>3.038</v>
       </c>
       <c r="C23">
-        <v>2.267728290619557</v>
+        <v>2.331350667661939</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>29.401</v>
       </c>
       <c r="C24">
-        <v>21.94650410549888</v>
+        <v>22.56222547068093</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>8.912000000000001</v>
       </c>
       <c r="C25">
-        <v>6.652401094799702</v>
+        <v>6.839037903292694</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>16.97</v>
       </c>
       <c r="C26">
-        <v>12.66733018163722</v>
+        <v>13.02271916728871</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>31.158</v>
       </c>
       <c r="C27">
-        <v>23.25802438417517</v>
+        <v>23.91054117939786</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>6.966</v>
       </c>
       <c r="C28">
-        <v>5.199800945508834</v>
+        <v>5.345684249813386</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>14.693</v>
       </c>
       <c r="C29">
-        <v>10.96765364518537</v>
+        <v>11.27535726134196</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>3.496</v>
       </c>
       <c r="C30">
-        <v>2.609604379198806</v>
+        <v>2.682818279837439</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>3.482</v>
       </c>
       <c r="C31">
-        <v>2.599154018412541</v>
+        <v>2.672074728373559</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>6.394</v>
       </c>
       <c r="C32">
-        <v>4.772829061955711</v>
+        <v>4.906733432860579</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>6.677</v>
       </c>
       <c r="C33">
-        <v>4.984075640706644</v>
+        <v>5.123906651737579</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>122.062</v>
       </c>
       <c r="C34">
-        <v>91.11370987807913</v>
+        <v>93.66995562743634</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>10.314</v>
       </c>
       <c r="C35">
-        <v>7.698930082109978</v>
+        <v>7.914927842746952</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>29.768</v>
       </c>
       <c r="C36">
-        <v>22.22045284896741</v>
+        <v>22.84385999834121</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>5.138</v>
       </c>
       <c r="C37">
-        <v>3.835282408559343</v>
+        <v>3.942883387243925</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>13.086</v>
       </c>
       <c r="C38">
-        <v>9.768101517790496</v>
+        <v>10.04215103259517</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>12.706</v>
       </c>
       <c r="C39">
-        <v>9.484448867877582</v>
+        <v>9.750540350004147</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>9.933999999999999</v>
       </c>
       <c r="C40">
-        <v>7.415277432197064</v>
+        <v>7.623317160155925</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>7.759</v>
       </c>
       <c r="C41">
-        <v>5.791739238616572</v>
+        <v>5.95422970058887</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>35.439</v>
       </c>
       <c r="C42">
-        <v>280</v>
+        <v>259.8</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2023.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2023.xlsx
@@ -384,7 +384,7 @@
         <v>179.221</v>
       </c>
       <c r="C2">
-        <v>137.5335740648586</v>
+        <v>135.3425948491774</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>16.612</v>
       </c>
       <c r="C3">
-        <v>12.74799120842664</v>
+        <v>12.54490927756532</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>17.001</v>
       </c>
       <c r="C4">
-        <v>13.04650845981588</v>
+        <v>12.83867099854853</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>23.016</v>
       </c>
       <c r="C5">
-        <v>17.66239860661856</v>
+        <v>17.38102768675918</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>29.523</v>
       </c>
       <c r="C6">
-        <v>22.65584784772332</v>
+        <v>22.29492876243445</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>9.76</v>
       </c>
       <c r="C7">
-        <v>7.489790163390561</v>
+        <v>7.370474027753285</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>11.06</v>
       </c>
       <c r="C8">
-        <v>8.487405656465125</v>
+        <v>8.352197002761407</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>29.489</v>
       </c>
       <c r="C9">
-        <v>22.62975636559675</v>
+        <v>22.26925293078039</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>50.812</v>
       </c>
       <c r="C10">
-        <v>38.99295264161898</v>
+        <v>38.3717752354713</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>14.155</v>
       </c>
       <c r="C11">
-        <v>10.86249792651572</v>
+        <v>10.68945285479997</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>3.821</v>
       </c>
       <c r="C12">
-        <v>2.932222153106079</v>
+        <v>2.885510375004642</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>8.641</v>
       </c>
       <c r="C13">
-        <v>6.631073442813303</v>
+        <v>6.525437097727064</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>2.53</v>
       </c>
       <c r="C14">
-        <v>1.941513228829725</v>
+        <v>1.910583943669653</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>3.944</v>
       </c>
       <c r="C15">
-        <v>3.026611926681596</v>
+        <v>2.978396471870794</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>25.266</v>
       </c>
       <c r="C16">
-        <v>19.38904080617069</v>
+        <v>19.08016360504247</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>26.033</v>
       </c>
       <c r="C17">
-        <v>19.97763394708468</v>
+        <v>19.65938016029726</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>25.575</v>
       </c>
       <c r="C18">
-        <v>19.62616633490918</v>
+        <v>19.31351160448671</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>8.167</v>
       </c>
       <c r="C19">
-        <v>6.267327486107655</v>
+        <v>6.167485797608717</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>32.381</v>
       </c>
       <c r="C20">
-        <v>24.84906713942108</v>
+        <v>24.45320896441384</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>91.34999999999999</v>
       </c>
       <c r="C21">
-        <v>70.10167330181636</v>
+        <v>68.98491828230149</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>14.249</v>
       </c>
       <c r="C22">
-        <v>10.93463320063034</v>
+        <v>10.76043897760825</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>3.038</v>
       </c>
       <c r="C23">
-        <v>2.331350667661939</v>
+        <v>2.294211075442057</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>29.401</v>
       </c>
       <c r="C24">
-        <v>22.56222547068093</v>
+        <v>22.20279783708753</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>8.912000000000001</v>
       </c>
       <c r="C25">
-        <v>6.839037903292694</v>
+        <v>6.730088579440295</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>16.97</v>
       </c>
       <c r="C26">
-        <v>13.02271916728871</v>
+        <v>12.81526068145218</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>31.158</v>
       </c>
       <c r="C27">
-        <v>23.91054117939786</v>
+        <v>23.52963419638697</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>6.966</v>
       </c>
       <c r="C28">
-        <v>5.345684249813386</v>
+        <v>5.26052480300506</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>14.693</v>
       </c>
       <c r="C29">
-        <v>11.27535726134196</v>
+        <v>11.09573513214949</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>3.496</v>
       </c>
       <c r="C30">
-        <v>2.682818279837439</v>
+        <v>2.640079631252611</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>3.482</v>
       </c>
       <c r="C31">
-        <v>2.672074728373559</v>
+        <v>2.629507229983293</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>6.394</v>
       </c>
       <c r="C32">
-        <v>4.906733432860579</v>
+        <v>4.828566694001486</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>6.677</v>
       </c>
       <c r="C33">
-        <v>5.123906651737579</v>
+        <v>5.042280233945561</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>122.062</v>
       </c>
       <c r="C34">
-        <v>93.66995562743634</v>
+        <v>92.17774598110877</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>10.314</v>
       </c>
       <c r="C35">
-        <v>7.914927842746952</v>
+        <v>7.788839049410592</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>29.768</v>
       </c>
       <c r="C36">
-        <v>22.84385999834121</v>
+        <v>22.47994578464752</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>5.138</v>
       </c>
       <c r="C37">
-        <v>3.942883387243925</v>
+        <v>3.880071265839792</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>13.086</v>
       </c>
       <c r="C38">
-        <v>10.04215103259517</v>
+        <v>9.882174500735603</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>12.706</v>
       </c>
       <c r="C39">
-        <v>9.750540350004147</v>
+        <v>9.595209323425538</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>9.933999999999999</v>
       </c>
       <c r="C40">
-        <v>7.623317160155925</v>
+        <v>7.501873872100526</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>7.759</v>
       </c>
       <c r="C41">
-        <v>5.95422970058887</v>
+        <v>5.859375817760014</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>35.439</v>
       </c>
       <c r="C42">
-        <v>259.8</v>
+        <v>271.591759404743</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2023.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2023.xlsx
@@ -384,7 +384,7 @@
         <v>179.221</v>
       </c>
       <c r="C2">
-        <v>137.5335740648586</v>
+        <v>135.1608319129966</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>16.612</v>
       </c>
       <c r="C3">
-        <v>12.74799120842664</v>
+        <v>12.52806166542258</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>17.001</v>
       </c>
       <c r="C4">
-        <v>13.04650845981588</v>
+        <v>12.82142886912168</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>23.016</v>
       </c>
       <c r="C5">
-        <v>17.66239860661856</v>
+        <v>17.35768524508584</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>29.523</v>
       </c>
       <c r="C6">
-        <v>22.65584784772332</v>
+        <v>22.26498703035582</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>9.76</v>
       </c>
       <c r="C7">
-        <v>7.489790163390561</v>
+        <v>7.360575599236959</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>11.06</v>
       </c>
       <c r="C8">
-        <v>8.487405656465125</v>
+        <v>8.340980136020569</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>29.489</v>
       </c>
       <c r="C9">
-        <v>22.62975636559675</v>
+        <v>22.23934568093224</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>50.812</v>
       </c>
       <c r="C10">
-        <v>38.99295264161898</v>
+        <v>38.32024255619143</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>14.155</v>
       </c>
       <c r="C11">
-        <v>10.86249792651572</v>
+        <v>10.67509709090155</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>3.821</v>
       </c>
       <c r="C12">
-        <v>2.932222153106079</v>
+        <v>2.88163518080783</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>8.641</v>
       </c>
       <c r="C13">
-        <v>6.631073442813303</v>
+        <v>6.516673540267067</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>2.53</v>
       </c>
       <c r="C14">
-        <v>1.941513228829725</v>
+        <v>1.908018060048105</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>3.944</v>
       </c>
       <c r="C15">
-        <v>3.026611926681596</v>
+        <v>2.974396533134279</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>25.266</v>
       </c>
       <c r="C16">
-        <v>19.38904080617069</v>
+        <v>19.05453925105748</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>26.033</v>
       </c>
       <c r="C17">
-        <v>19.97763394708468</v>
+        <v>19.63297792775981</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>25.575</v>
       </c>
       <c r="C18">
-        <v>19.62616633490918</v>
+        <v>19.28757386787758</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>8.167</v>
       </c>
       <c r="C19">
-        <v>6.267327486107655</v>
+        <v>6.159202963009041</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>32.381</v>
       </c>
       <c r="C20">
-        <v>24.84906713942108</v>
+        <v>24.42036869660778</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>91.34999999999999</v>
       </c>
       <c r="C21">
-        <v>70.10167330181636</v>
+        <v>68.89227264244838</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>14.249</v>
       </c>
       <c r="C22">
-        <v>10.93463320063034</v>
+        <v>10.74598788048437</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>3.038</v>
       </c>
       <c r="C23">
-        <v>2.331350667661939</v>
+        <v>2.291129986729701</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>29.401</v>
       </c>
       <c r="C24">
-        <v>22.56222547068093</v>
+        <v>22.17297983536535</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>8.912000000000001</v>
       </c>
       <c r="C25">
-        <v>6.839037903292694</v>
+        <v>6.72105017831965</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>16.97</v>
       </c>
       <c r="C26">
-        <v>13.02271916728871</v>
+        <v>12.79804999170606</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>31.158</v>
       </c>
       <c r="C27">
-        <v>23.91054117939786</v>
+        <v>23.4980342746952</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>6.966</v>
       </c>
       <c r="C28">
-        <v>5.345684249813386</v>
+        <v>5.253460002488182</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>14.693</v>
       </c>
       <c r="C29">
-        <v>11.27535726134196</v>
+        <v>11.08083373766277</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>3.496</v>
       </c>
       <c r="C30">
-        <v>2.682818279837439</v>
+        <v>2.636534046611927</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>3.482</v>
       </c>
       <c r="C31">
-        <v>2.672074728373559</v>
+        <v>2.625975843908104</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>6.394</v>
       </c>
       <c r="C32">
-        <v>4.906733432860579</v>
+        <v>4.822082006303393</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>6.677</v>
       </c>
       <c r="C33">
-        <v>5.123906651737579</v>
+        <v>5.035508532387825</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>122.062</v>
       </c>
       <c r="C34">
-        <v>93.66995562743634</v>
+        <v>92.05395274529322</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>10.314</v>
       </c>
       <c r="C35">
-        <v>7.914927842746952</v>
+        <v>7.778378763373975</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>29.768</v>
       </c>
       <c r="C36">
-        <v>22.84385999834121</v>
+        <v>22.44975557767273</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>5.138</v>
       </c>
       <c r="C37">
-        <v>3.942883387243925</v>
+        <v>3.874860392303227</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>13.086</v>
       </c>
       <c r="C38">
-        <v>10.04215103259517</v>
+        <v>9.868902898731029</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>12.706</v>
       </c>
       <c r="C39">
-        <v>9.750540350004147</v>
+        <v>9.582323111055819</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>9.933999999999999</v>
       </c>
       <c r="C40">
-        <v>7.623317160155925</v>
+        <v>7.491798975698765</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>7.759</v>
       </c>
       <c r="C41">
-        <v>5.95422970058887</v>
+        <v>5.851506769926185</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>35.439</v>
       </c>
       <c r="C42">
-        <v>259.8</v>
+        <v>272.57</v>
       </c>
     </row>
   </sheetData>
